--- a/data/data testing.xlsx
+++ b/data/data testing.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="293">
   <si>
     <t>Username</t>
   </si>
@@ -45,15 +45,6 @@
     <t>saya beli di sini kemaren pas sampe botol nya pecah dan tutup nya lepas</t>
   </si>
   <si>
-    <t>iwakkali_</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@iwakkali_</t>
-  </si>
-  <si>
-    <t>mau nanya ka kalo di campur bisa ga ka?</t>
-  </si>
-  <si>
     <t>sinull14</t>
   </si>
   <si>
@@ -69,15 +60,6 @@
     <t>https://www.tiktok.com/@ardilaaaa_10</t>
   </si>
   <si>
-    <t>afikaadilaput</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@afikaadilaput</t>
-  </si>
-  <si>
-    <t>mau dong parfum nya, aku udah pernah beli enak</t>
-  </si>
-  <si>
     <t>herrylejiuborneo</t>
   </si>
   <si>
@@ -93,18 +75,12 @@
     <t>https://www.tiktok.com/@ath.ig</t>
   </si>
   <si>
-    <t>lebih suka merek sebelah dari pada merek ini</t>
-  </si>
-  <si>
     <t>alifibnuu</t>
   </si>
   <si>
     <t>https://www.tiktok.com/@alifibnuu</t>
   </si>
   <si>
-    <t>kalo bisa parfum nya yang tahan lama kak, yang ini ketiup angin jalan aja udah ilang</t>
-  </si>
-  <si>
     <t>momentsadd5</t>
   </si>
   <si>
@@ -162,36 +138,24 @@
     <t>https://www.tiktok.com/@gusnitaputriii</t>
   </si>
   <si>
-    <t>mau banget, parfum kesukaan aku</t>
-  </si>
-  <si>
     <t>alfahriasalbi</t>
   </si>
   <si>
     <t>https://www.tiktok.com/@alfahriasalbi</t>
   </si>
   <si>
-    <t>mau belii... aku suka</t>
-  </si>
-  <si>
     <t>ardianswanjr</t>
   </si>
   <si>
     <t>https://www.tiktok.com/@ardianswanjr</t>
   </si>
   <si>
-    <t>saran parfum nya yang paling best kak</t>
-  </si>
-  <si>
     <t>noyusarahsarah299</t>
   </si>
   <si>
     <t>https://www.tiktok.com/@noyusarahsarah299</t>
   </si>
   <si>
-    <t>buat ibu-ibu ada gak ka</t>
-  </si>
-  <si>
     <t>jenah154</t>
   </si>
   <si>
@@ -219,27 +183,18 @@
     <t>https://www.tiktok.com/@bliketutagus88</t>
   </si>
   <si>
-    <t>pakai parfum ini biar gampang dapat jodoh</t>
-  </si>
-  <si>
     <t>adzrin57</t>
   </si>
   <si>
     <t>https://www.tiktok.com/@adzrin57</t>
   </si>
   <si>
-    <t>ongkos kirim nya kemahalan, kak</t>
-  </si>
-  <si>
     <t>zaqistory23</t>
   </si>
   <si>
     <t>https://www.tiktok.com/@zaqistory23</t>
   </si>
   <si>
-    <t>daerah mana ka?</t>
-  </si>
-  <si>
     <t>jagoanbabehh_</t>
   </si>
   <si>
@@ -270,39 +225,18 @@
     <t>https://www.tiktok.com/@wannn.16</t>
   </si>
   <si>
-    <t>yang biru wangi nya enak banget,kak , saya suka, bismillah dapat morris gratis</t>
-  </si>
-  <si>
     <t>irwan_135790</t>
   </si>
   <si>
     <t>https://www.tiktok.com/@irwan_135790</t>
   </si>
   <si>
-    <t>saya pesan nya pure romantic, yang datang nya midnight love</t>
-  </si>
-  <si>
-    <t>msglowkalimantan</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@msglowkalimantan</t>
-  </si>
-  <si>
-    <t>wangi nya enak, lembut, segar, seperti parfum berkelas</t>
-  </si>
-  <si>
     <t>afdalfiransyah6</t>
   </si>
   <si>
-    <t>wangi nya belum juga satu jam, sudah hilang</t>
-  </si>
-  <si>
     <t>https://www.tiktok.com/@afdalfiransyah6</t>
   </si>
   <si>
-    <t>aroma nya tajam banget bikin pusing kepala</t>
-  </si>
-  <si>
     <t>risamia56</t>
   </si>
   <si>
@@ -312,18 +246,12 @@
     <t>https://www.tiktok.com/@rifqohsufi</t>
   </si>
   <si>
-    <t>estimasi pengiriman nya lama banget</t>
-  </si>
-  <si>
     <t>cucum1217</t>
   </si>
   <si>
     <t>https://www.tiktok.com/@cucum1217</t>
   </si>
   <si>
-    <t>wangi nya kalem, dengan harga segitu mantap</t>
-  </si>
-  <si>
     <t>wanpiro9</t>
   </si>
   <si>
@@ -339,18 +267,12 @@
     <t>https://www.tiktok.com/@selfi_76c</t>
   </si>
   <si>
-    <t>lima sampai sepuluh menit sudah gak ada bau nya</t>
-  </si>
-  <si>
     <t>fsjabw</t>
   </si>
   <si>
     <t>https://www.tiktok.com/@fsjabw</t>
   </si>
   <si>
-    <t>gak enak, cepat hilang juga aroma nya</t>
-  </si>
-  <si>
     <t>mfazilah304</t>
   </si>
   <si>
@@ -366,18 +288,12 @@
     <t>https://www.tiktok.com/@jamalabnas</t>
   </si>
   <si>
-    <t>wow emang se-harum itu Morris</t>
-  </si>
-  <si>
     <t>liyasusanty02</t>
   </si>
   <si>
     <t>https://www.tiktok.com/@liyasusanty02</t>
   </si>
   <si>
-    <t>aku pakai kak, wangi banget</t>
-  </si>
-  <si>
     <t>egi_mabu</t>
   </si>
   <si>
@@ -393,36 +309,24 @@
     <t>https://www.tiktok.com/@alfianfian1811</t>
   </si>
   <si>
-    <t>kelamaan di toko nya, gak dikirim-kirim</t>
-  </si>
-  <si>
     <t>user363293705130</t>
   </si>
   <si>
     <t>https://www.tiktok.com/@user363293705130</t>
   </si>
   <si>
-    <t>kena di baju putih dia bercak kuning, aroma nya juga gak tahan lama</t>
-  </si>
-  <si>
     <t>sawitrirahmadani3</t>
   </si>
   <si>
     <t>https://www.tiktok.com/@sawitrirahmadani3</t>
   </si>
   <si>
-    <t>wangi-wangi semua parfum nya</t>
-  </si>
-  <si>
     <t>wiwinwinda280</t>
   </si>
   <si>
     <t>https://www.tiktok.com/@wiwinwinda280</t>
   </si>
   <si>
-    <t>meninggalkan jejak di baju jadi kuning semua baju aku kak</t>
-  </si>
-  <si>
     <t>yeahmntp</t>
   </si>
   <si>
@@ -438,16 +342,337 @@
     <t>https://www.tiktok.com/@afiqabiancaa</t>
   </si>
   <si>
-    <t>bau tidak sesuai ekspektasi</t>
-  </si>
-  <si>
     <t>user8440358149637</t>
   </si>
   <si>
     <t>https://www.tiktok.com/@user8440358149637</t>
   </si>
   <si>
-    <t>kalo kena baju kaos bisa kuning kaya parfum murahan</t>
+    <t>user8873158781961</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@user8873158781961</t>
+  </si>
+  <si>
+    <t>harum nya gak seperti yang aku beli di Alfamart</t>
+  </si>
+  <si>
+    <t>sriwarnidawati3</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@sriwarnidawati3</t>
+  </si>
+  <si>
+    <t>yusupjaelani78</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@yusupjaelani78</t>
+  </si>
+  <si>
+    <t>wangi nya asik banget buat jalan jalan sama keluarga</t>
+  </si>
+  <si>
+    <t>rendiafriansah885</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@rendiafriansah885</t>
+  </si>
+  <si>
+    <t>muliyadi994</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@muliyadi994</t>
+  </si>
+  <si>
+    <t>trimo5008</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@trimo5008</t>
+  </si>
+  <si>
+    <t>jangan percaya iklan nya bohong</t>
+  </si>
+  <si>
+    <t>user8766958022907</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@user8766958022907</t>
+  </si>
+  <si>
+    <t>lennysikumbang221185</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@lennysikumbang221185</t>
+  </si>
+  <si>
+    <t>abellabella43</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@abellabella43</t>
+  </si>
+  <si>
+    <t>mau nanya ka warna botol woody apa ka</t>
+  </si>
+  <si>
+    <t>mahligaicinta145</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@mahligaicinta145</t>
+  </si>
+  <si>
+    <t>mahal ongkos kirim nya sama harga parfum nya mahal</t>
+  </si>
+  <si>
+    <t>.capricorn003</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@.capricorn003</t>
+  </si>
+  <si>
+    <t>doel9154</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@doel9154</t>
+  </si>
+  <si>
+    <t>sevz123</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@sevz123</t>
+  </si>
+  <si>
+    <t>farizallll01</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@farizallll01</t>
+  </si>
+  <si>
+    <t>octav_sutansayidi</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@octav_sutansayidi</t>
+  </si>
+  <si>
+    <t>gak menyesal beli dua sekaligus wangi banget</t>
+  </si>
+  <si>
+    <t>ariefin23_r</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@ariefin23_r</t>
+  </si>
+  <si>
+    <t>lipo.58mlbb</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@lipo.58mlbb</t>
+  </si>
+  <si>
+    <t>me2t_1986</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@me2t_1986</t>
+  </si>
+  <si>
+    <t>799above</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@799above</t>
+  </si>
+  <si>
+    <t>orangg7780</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@orangg7780</t>
+  </si>
+  <si>
+    <t>saran ka vintage apa metropolis</t>
+  </si>
+  <si>
+    <t>w...y2011</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@w...y2011</t>
+  </si>
+  <si>
+    <t>Layanan keluhan pelanggan nya sulit dihubungi</t>
+  </si>
+  <si>
+    <t>marlik227</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@marlik227</t>
+  </si>
+  <si>
+    <t>parfum nya ga layak pake leher aku jadi panas pas make ini parfum</t>
+  </si>
+  <si>
+    <t>rhelyaurelia</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@rhelyaurelia</t>
+  </si>
+  <si>
+    <t>kiinasih986</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@kiinasih986</t>
+  </si>
+  <si>
+    <t>dipakai keluar beberapa jam sudah hilang aja wangi nya</t>
+  </si>
+  <si>
+    <t>fauzi_arifin79</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@fauzi_arifin79</t>
+  </si>
+  <si>
+    <t>toko ga modal massa beli parfum ga dapat box nya</t>
+  </si>
+  <si>
+    <t>jimantoto6</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@jimantoto6</t>
+  </si>
+  <si>
+    <t>ateirfan176</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@ateirfan176</t>
+  </si>
+  <si>
+    <t>iklan pembohong ga sesuai dengan kenyataan nya</t>
+  </si>
+  <si>
+    <t>yantoghaluh</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@yantoghaluh</t>
+  </si>
+  <si>
+    <t>saran buat motoran varian apa ka</t>
+  </si>
+  <si>
+    <t>yarr178</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@yarr178</t>
+  </si>
+  <si>
+    <t>varian yang mirip ac mobil apa ka</t>
+  </si>
+  <si>
+    <t>7081n9</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@7081n9</t>
+  </si>
+  <si>
+    <t>enak juga wangi parfum nya</t>
+  </si>
+  <si>
+    <t>user5545729493275</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@user5545729493275</t>
+  </si>
+  <si>
+    <t>wangi nya segar banget aku suka</t>
+  </si>
+  <si>
+    <t>christiabunker_805</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@christiabunker_805</t>
+  </si>
+  <si>
+    <t>ihsn56</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@ihsn56</t>
+  </si>
+  <si>
+    <t>rekomendasi parfum cowok dong ka</t>
+  </si>
+  <si>
+    <t>user3322908885881</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@user3322908885881</t>
+  </si>
+  <si>
+    <t>beatrixnaya</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@beatrixnaya</t>
+  </si>
+  <si>
+    <t>mau nanya ka metropolis buat cewek bisa ga ka</t>
+  </si>
+  <si>
+    <t>edopandeglang25</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@edopandeglang25</t>
+  </si>
+  <si>
+    <t>skjsakursi</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@skjsakursi</t>
+  </si>
+  <si>
+    <t>chosoo025</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@chosoo025</t>
+  </si>
+  <si>
+    <t>remboz21</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@remboz21</t>
+  </si>
+  <si>
+    <t>mau nanya ka varian woody bisa buat anak sekolah ga ka</t>
+  </si>
+  <si>
+    <t>arjenhiowati2023</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@arjenhiowati2023</t>
+  </si>
+  <si>
+    <t>anismawar2</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@anismawar2</t>
+  </si>
+  <si>
+    <t>zellilu_</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@zellilu_</t>
+  </si>
+  <si>
+    <t>sagitaboy25</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@sagitaboy25</t>
+  </si>
+  <si>
+    <t>mau nanya ka buat kodangan temen varian apa ka</t>
+  </si>
+  <si>
+    <t>haryantomerry</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@haryantomerry</t>
+  </si>
+  <si>
+    <t>wangi nya ga tahan lama</t>
   </si>
   <si>
     <t xml:space="preserve">itu kan parfum nya varian favorit saya wangi nya cocok buat anak sekolah </t>
@@ -471,10 +696,208 @@
     <t>motif botol moris keren keren banget</t>
   </si>
   <si>
+    <t>kardus pengiriman nya jelek pas sampe sobek</t>
+  </si>
+  <si>
+    <t>ka mau nanya cara pake pafum yang bener gimana yah ka</t>
+  </si>
+  <si>
+    <t>mau nanya ka buat acara formal apa ka</t>
+  </si>
+  <si>
     <t>varian moris keren keren semua aku suka</t>
   </si>
   <si>
     <t>parfum yang cocok buat anak sekolah apa ka</t>
+  </si>
+  <si>
+    <t>aku udah pernah beli enak banget wangi nya ka</t>
+  </si>
+  <si>
+    <t>parfum jelek cepat hilang wangi nya</t>
+  </si>
+  <si>
+    <t>aku suka parfum metropolis nya enak banget</t>
+  </si>
+  <si>
+    <t>buat ibu ibu ada gak ka</t>
+  </si>
+  <si>
+    <t>pake parfum moris pasti semua orang suka sama wangi nya karena enak banget wangi nya seger</t>
+  </si>
+  <si>
+    <t>saya pesan nya pure romantic yang datang nya midnight love</t>
+  </si>
+  <si>
+    <t>wangi nya enak lembut segar mewah seperti parfum berkelas</t>
+  </si>
+  <si>
+    <t>mengecewakan wangi nya belum juga satu jam sudah hilang</t>
+  </si>
+  <si>
+    <t>wangi nya kalem dengan harga segitu mantap</t>
+  </si>
+  <si>
+    <t>kecewa lima sampai sepuluh menit sudah gak ada bau nya</t>
+  </si>
+  <si>
+    <t>gak enak cepat hilang juga aroma nya</t>
+  </si>
+  <si>
+    <t>wow emang seharum itu Morris</t>
+  </si>
+  <si>
+    <t>kelamaan di toko nya gak dikirim-kirim</t>
+  </si>
+  <si>
+    <t>kena di baju putih dia bercak kuning aroma nya juga gak tahan lama</t>
+  </si>
+  <si>
+    <t>wangi wangi semua parfum nya</t>
+  </si>
+  <si>
+    <t>kena baju kaos bisa kuning kaya parfum murahan</t>
+  </si>
+  <si>
+    <t>cantik banget botol nya wangi nya juga harum</t>
+  </si>
+  <si>
+    <t>mantap banget sih ini emang wangi banget varian metropolis nya</t>
+  </si>
+  <si>
+    <t>bau nya gak enak banget terus gak tahan lama lagi</t>
+  </si>
+  <si>
+    <t>mantap elegan dan lembut banget wangi nya</t>
+  </si>
+  <si>
+    <t>pengiriman lama padahal jasa pengiriman express</t>
+  </si>
+  <si>
+    <t>yang varian aquatic bau nya gimana ka</t>
+  </si>
+  <si>
+    <t>semprotan nya sulit di gunakan</t>
+  </si>
+  <si>
+    <t>Kebijakan pengembalian sangat rumit dan sulit</t>
+  </si>
+  <si>
+    <t>rekomendasi untuk jalan-jalan apa ka</t>
+  </si>
+  <si>
+    <t>sumpah wangi banget yang ocean breeze</t>
+  </si>
+  <si>
+    <t>yang metropolis enak banget aku pakai</t>
+  </si>
+  <si>
+    <t>wangi nya kurang kuat mudah hilang</t>
+  </si>
+  <si>
+    <t>sudah delapan hari belum di kirim kirim</t>
+  </si>
+  <si>
+    <t>wangi nya mantap banget pokok nya terbaik deh</t>
+  </si>
+  <si>
+    <t>Parfum nya ga worth it cepet ilang bau nya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botol nya retak </t>
+  </si>
+  <si>
+    <t>Wangi nya ga enak bau alkohol nya nyengat</t>
+  </si>
+  <si>
+    <t>rekomendasi ka vintage atau creative ka</t>
+  </si>
+  <si>
+    <t>Sampe rumah botol nya retak semua jadi ga bisa di pake</t>
+  </si>
+  <si>
+    <t>mau banget parfum kesukaan aku</t>
+  </si>
+  <si>
+    <t>daerah mana ka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andalan aku pas sekolah woody langsung berasa jadi artis sekolah </t>
+  </si>
+  <si>
+    <t>Aroma nya sangat menyengat dan membuat kepala pusing</t>
+  </si>
+  <si>
+    <t>Estimasi pengirimannya sangat lama dan menjengkelkan</t>
+  </si>
+  <si>
+    <t>Bau parfumnya sangat buruk sama sekali tidak sesuai ekspektasi dan sangat mengecewakan</t>
+  </si>
+  <si>
+    <t>parah aku malah di kirim dua dua nya woody Kapok belanja di sini lagi</t>
+  </si>
+  <si>
+    <t>Metropolis benar benar merusak baju putih aku menjadi kuning karena parfum nya Sangat kecewa dengan Moris</t>
+  </si>
+  <si>
+    <t>saran parfum nya yang paling best ka</t>
+  </si>
+  <si>
+    <t>ongkos kirim nya kemahalan ka</t>
+  </si>
+  <si>
+    <t>yang biru wangi nya enak banget ka saya suka bismillah dapat morris gratis</t>
+  </si>
+  <si>
+    <t>aku pakai ka wangi banget</t>
+  </si>
+  <si>
+    <t>meninggalkan jejak di baju jadi kuning semua baju aku ka</t>
+  </si>
+  <si>
+    <t>ka bisa bayar di tempat dong nanti aku borong</t>
+  </si>
+  <si>
+    <t>gimana ka cara ganti alamat nya</t>
+  </si>
+  <si>
+    <t>ramadhansaya</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@ramadhansaya</t>
+  </si>
+  <si>
+    <t>rekomendasi parfum buat anak sekolah ka</t>
+  </si>
+  <si>
+    <t>iwaali_</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@iwaali_</t>
+  </si>
+  <si>
+    <t>afiadilaput</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@afiadilaput</t>
+  </si>
+  <si>
+    <t>mau nanya ka kalo di campur bisa ga ka</t>
+  </si>
+  <si>
+    <t>Sangat buruk dan mengecewakan kualitas nya</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@msglowsumatra</t>
+  </si>
+  <si>
+    <t>msglowsumatra</t>
+  </si>
+  <si>
+    <t>ashalwinism</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@ashalwinism</t>
   </si>
 </sst>
 </file>
@@ -484,7 +907,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-13809]dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,33 +937,9 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -554,23 +953,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0D0D0D"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -600,9 +982,28 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -643,9 +1044,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -662,28 +1063,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -693,35 +1085,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -730,36 +1100,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -978,16 +1366,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" customWidth="1"/>
-    <col min="4" max="4" width="85.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="85.42578125" style="27" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="25" width="8.7109375" customWidth="1"/>
@@ -997,10 +1385,10 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1015,2315 +1403,2705 @@
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>45140</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8">
+        <v>283</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7">
         <v>45140</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8">
+        <v>8</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7">
         <v>45140</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8">
+        <v>11</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7">
         <v>45114</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="19"/>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8">
+      <c r="A6" s="14"/>
+      <c r="B6" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7">
         <v>45083</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8">
+        <v>13</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7">
         <v>45083</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8">
+        <v>16</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7">
         <v>45082</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8">
+        <v>18</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7">
         <v>45082</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75">
       <c r="A10" s="4"/>
-      <c r="B10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="14">
+      <c r="B10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="11">
         <v>45082</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="14">
+      <c r="B11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="11">
         <v>45082</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="14">
+      <c r="B12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="11">
         <v>45079</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8">
+        <v>28</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7">
         <v>45079</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="14">
+      <c r="B14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="11">
         <v>45079</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="14">
+      <c r="B15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="11">
         <v>45079</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="14">
+      <c r="B16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="11">
         <v>45079</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="14">
+      <c r="B17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="11">
         <v>45078</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="14">
+      <c r="B18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="11">
         <v>45078</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8">
+        <v>41</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7">
         <v>45078</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8">
+        <v>43</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7">
         <v>45078</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="8">
+        <v>45</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="7">
         <v>45078</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="8">
+        <v>47</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="7">
         <v>45033</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8">
+        <v>49</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7">
         <v>45033</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8">
+        <v>52</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7">
         <v>45033</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8">
+        <v>54</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7">
         <v>45032</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8">
+        <v>56</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7">
         <v>45032</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="8">
+        <v>58</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7">
         <v>45032</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8">
+        <v>61</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7">
         <v>45032</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8">
+        <v>63</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7">
         <v>45031</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8">
+        <v>66</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7">
         <v>45031</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8">
+        <v>68</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7">
         <v>45031</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8">
+      <c r="B32" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7">
         <v>45031</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8">
+        <v>70</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7">
         <v>45031</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8">
+        <v>70</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7">
         <v>45031</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8">
+        <v>72</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7">
         <v>45031</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8">
+        <v>73</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7">
         <v>45031</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8">
+        <v>75</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7">
         <v>45030</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8">
+        <v>77</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7">
         <v>45030</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8">
+        <v>80</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7">
         <v>45030</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8">
+        <v>82</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7">
         <v>45030</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8">
+        <v>84</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7">
         <v>45030</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8">
+        <v>87</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7">
         <v>45030</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8">
+        <v>89</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7">
         <v>45030</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8">
+        <v>91</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7">
         <v>45029</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8">
+        <v>94</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7">
         <v>45029</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8">
+        <v>96</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="7">
         <v>45029</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8">
+        <v>98</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="7">
         <v>45029</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8">
+        <v>100</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7">
         <v>45029</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="8">
+        <v>102</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="7">
         <v>45029</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8">
+        <v>105</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7">
         <v>45029</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="8">
+        <v>107</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="7">
         <v>45029</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1">
       <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8"/>
+      <c r="B52" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="7">
+        <v>45029</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
+      <c r="B53" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="7">
+        <v>45029</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1">
       <c r="A54" s="4"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
+      <c r="B54" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7">
+        <v>45029</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="4"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
+      <c r="B55" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="7">
+        <v>45029</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1">
       <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="7"/>
+      <c r="B56" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>247</v>
+      </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="8"/>
+      <c r="F56" s="7">
+        <v>45028</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1">
       <c r="A57" s="4"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="8"/>
+      <c r="B57" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="7">
+        <v>45028</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1">
       <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="8"/>
+      <c r="B58" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="7">
+        <v>45028</v>
+      </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
       <c r="A59" s="4"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="8"/>
+      <c r="B59" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="7">
+        <v>45028</v>
+      </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="8"/>
+      <c r="B60" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="7">
+        <v>45028</v>
+      </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
       <c r="A61" s="4"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="8"/>
+      <c r="B61" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="7">
+        <v>45028</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
       <c r="A62" s="4"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="8"/>
+      <c r="B62" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="7">
+        <v>45025</v>
+      </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="8"/>
+      <c r="B63" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="7">
+        <v>45025</v>
+      </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1">
       <c r="A64" s="4"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="8"/>
+      <c r="B64" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="16"/>
+      <c r="F64" s="7">
+        <v>45024</v>
+      </c>
     </row>
     <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="4"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="8"/>
+      <c r="B65" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="7">
+        <v>45023</v>
+      </c>
     </row>
     <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="4"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="8"/>
+      <c r="B66" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="E66" s="16"/>
+      <c r="F66" s="7">
+        <v>45022</v>
+      </c>
     </row>
     <row r="67" spans="1:25" ht="15.75" customHeight="1">
       <c r="A67" s="4"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="8"/>
+      <c r="B67" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="7">
+        <v>45022</v>
+      </c>
     </row>
     <row r="68" spans="1:25" ht="15.75" customHeight="1">
       <c r="A68" s="4"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="8"/>
+      <c r="B68" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="E68" s="22"/>
+      <c r="F68" s="7">
+        <v>45017</v>
+      </c>
     </row>
     <row r="69" spans="1:25" ht="15.75" customHeight="1">
       <c r="A69" s="4"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="8"/>
+      <c r="B69" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="7">
+        <v>45017</v>
+      </c>
     </row>
     <row r="70" spans="1:25" ht="15.75" customHeight="1">
       <c r="A70" s="4"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="8"/>
+      <c r="B70" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="7">
+        <v>45013</v>
+      </c>
     </row>
     <row r="71" spans="1:25" ht="15.75" customHeight="1">
       <c r="A71" s="4"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="8"/>
+      <c r="B71" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="E71" s="23"/>
+      <c r="F71" s="7">
+        <v>45013</v>
+      </c>
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1">
       <c r="A72" s="4"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="8"/>
+      <c r="B72" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="7">
+        <v>45012</v>
+      </c>
     </row>
     <row r="73" spans="1:25" ht="15.75" customHeight="1">
       <c r="A73" s="4"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="7"/>
+      <c r="B73" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>256</v>
+      </c>
       <c r="E73" s="2"/>
-      <c r="F73" s="8"/>
+      <c r="F73" s="7">
+        <v>45011</v>
+      </c>
     </row>
     <row r="74" spans="1:25" ht="15.75" customHeight="1">
       <c r="A74" s="4"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="15"/>
-      <c r="T74" s="15"/>
-      <c r="U74" s="15"/>
-      <c r="V74" s="15"/>
-      <c r="W74" s="15"/>
-      <c r="X74" s="15"/>
-      <c r="Y74" s="15"/>
+      <c r="B74" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="7">
+        <v>45009</v>
+      </c>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1">
       <c r="A75" s="4"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="8"/>
+      <c r="B75" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="7">
+        <v>45008</v>
+      </c>
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="4"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="8"/>
+      <c r="B76" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="7">
+        <v>45008</v>
+      </c>
     </row>
     <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="4"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="8"/>
+      <c r="B77" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="7">
+        <v>45008</v>
+      </c>
     </row>
     <row r="78" spans="1:25" ht="15.75" customHeight="1">
       <c r="A78" s="4"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="8"/>
+      <c r="B78" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="7">
+        <v>45008</v>
+      </c>
     </row>
     <row r="79" spans="1:25" ht="15.75" customHeight="1">
       <c r="A79" s="4"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="8"/>
+      <c r="B79" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="7">
+        <v>45008</v>
+      </c>
     </row>
     <row r="80" spans="1:25" ht="15.75" customHeight="1">
       <c r="A80" s="4"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="8"/>
+      <c r="B80" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="7">
+        <v>45008</v>
+      </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1">
       <c r="A81" s="4"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="8"/>
+      <c r="B81" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="7">
+        <v>45008</v>
+      </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1">
       <c r="A82" s="4"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="8"/>
+      <c r="B82" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="7">
+        <v>45007</v>
+      </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1">
       <c r="A83" s="4"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="8"/>
+      <c r="B83" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="7">
+        <v>45005</v>
+      </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1">
       <c r="A84" s="4"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="8"/>
+      <c r="B84" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="6"/>
+      <c r="F84" s="7">
+        <v>45005</v>
+      </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1">
       <c r="A85" s="4"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="8"/>
+      <c r="B85" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="7">
+        <v>45005</v>
+      </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1">
       <c r="A86" s="4"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="8"/>
+      <c r="B86" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="F86" s="7">
+        <v>45005</v>
+      </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1">
       <c r="A87" s="4"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="8"/>
+      <c r="B87" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E87" s="6"/>
+      <c r="F87" s="7">
+        <v>44973</v>
+      </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1">
       <c r="A88" s="4"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="8"/>
+      <c r="B88" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="E88" s="6"/>
+      <c r="F88" s="7">
+        <v>44973</v>
+      </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1">
       <c r="A89" s="4"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="8"/>
+      <c r="B89" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="F89" s="7">
+        <v>44961</v>
+      </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1">
       <c r="A90" s="4"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="8"/>
+      <c r="B90" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="7">
+        <v>44961</v>
+      </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1">
       <c r="A91" s="4"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="8"/>
+      <c r="B91" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D91" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="F91" s="7">
+        <v>44960</v>
+      </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1">
       <c r="A92" s="4"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="8"/>
+      <c r="B92" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="F92" s="7">
+        <v>44960</v>
+      </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1">
       <c r="A93" s="4"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="8"/>
+      <c r="B93" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E93" s="22"/>
+      <c r="F93" s="7">
+        <v>44960</v>
+      </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1">
       <c r="A94" s="4"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="7"/>
+      <c r="B94" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C94" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>205</v>
+      </c>
       <c r="E94" s="2"/>
-      <c r="F94" s="8"/>
+      <c r="F94" s="7">
+        <v>44957</v>
+      </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1">
       <c r="A95" s="4"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="8"/>
+      <c r="B95" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="E95" s="6"/>
+      <c r="F95" s="7">
+        <v>44956</v>
+      </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1">
       <c r="A96" s="4"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="8"/>
+      <c r="B96" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="E96" s="6"/>
+      <c r="F96" s="7">
+        <v>44954</v>
+      </c>
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1">
       <c r="A97" s="4"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="8"/>
+      <c r="B97" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="E97" s="22"/>
+      <c r="F97" s="7">
+        <v>44954</v>
+      </c>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1">
       <c r="A98" s="4"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="8"/>
+      <c r="B98" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="7">
+        <v>44951</v>
+      </c>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1">
       <c r="A99" s="4"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="8"/>
+      <c r="B99" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="7">
+        <v>44950</v>
+      </c>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1">
       <c r="A100" s="4"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="8"/>
+      <c r="B100" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C100" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E100" s="24"/>
+      <c r="F100" s="7">
+        <v>44948</v>
+      </c>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="8"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="7"/>
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="8"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="7"/>
     </row>
     <row r="103" spans="1:6" ht="15.75" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="8"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="7"/>
     </row>
     <row r="104" spans="1:6" ht="15.75" customHeight="1">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="8"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="7"/>
     </row>
     <row r="105" spans="1:6" ht="15.75" customHeight="1">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="8"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="7"/>
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="8"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="7"/>
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="8"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="7"/>
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="8"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="7"/>
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="8"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="7"/>
     </row>
     <row r="110" spans="1:6" ht="15.75" customHeight="1">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="8"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="7"/>
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="8"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="7"/>
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="8"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="7"/>
     </row>
     <row r="113" spans="1:6" ht="15.75" customHeight="1">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="8"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="7"/>
     </row>
     <row r="114" spans="1:6" ht="15.75" customHeight="1">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="8"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="7"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="8"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="7"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="8"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="7"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="8"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="7"/>
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="8"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="7"/>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="8"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="7"/>
     </row>
     <row r="120" spans="1:6" ht="15.75" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="8"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="7"/>
     </row>
     <row r="121" spans="1:6" ht="15.75" customHeight="1">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="8"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="7"/>
     </row>
     <row r="122" spans="1:6" ht="15.75" customHeight="1">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="8"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="7"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="28"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="8"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="7"/>
     </row>
     <row r="124" spans="1:6" ht="15.75" customHeight="1">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
-      <c r="F124" s="8"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="7"/>
     </row>
     <row r="125" spans="1:6" ht="15.75" customHeight="1">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="8"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="7"/>
     </row>
     <row r="126" spans="1:6" ht="15.75" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="29"/>
-      <c r="F126" s="8"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="7"/>
     </row>
     <row r="127" spans="1:6" ht="15.75" customHeight="1">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="27"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="8"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="7"/>
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="8"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="7"/>
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="27"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="8"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="7"/>
     </row>
     <row r="130" spans="1:6" ht="15.75" customHeight="1">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="27"/>
-      <c r="E130" s="27"/>
-      <c r="F130" s="8"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="7"/>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="27"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="8"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="7"/>
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="8"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="7"/>
     </row>
     <row r="133" spans="1:6" ht="15.75" customHeight="1">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="8"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="7"/>
     </row>
     <row r="134" spans="1:6" ht="15.75" customHeight="1">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="8"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="7"/>
     </row>
     <row r="135" spans="1:6" ht="15.75" customHeight="1">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="27"/>
-      <c r="E135" s="27"/>
-      <c r="F135" s="8"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="7"/>
     </row>
     <row r="136" spans="1:6" ht="15.75" customHeight="1">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="27"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="8"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="7"/>
     </row>
     <row r="137" spans="1:6" ht="15.75" customHeight="1">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="27"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="8"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="7"/>
     </row>
     <row r="138" spans="1:6" ht="15.75" customHeight="1">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="27"/>
-      <c r="E138" s="27"/>
-      <c r="F138" s="8"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="7"/>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="27"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="8"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="7"/>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="27"/>
-      <c r="E140" s="27"/>
-      <c r="F140" s="8"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="7"/>
     </row>
     <row r="141" spans="1:6" ht="15.75" customHeight="1">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="27"/>
-      <c r="E141" s="27"/>
-      <c r="F141" s="8"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="7"/>
     </row>
     <row r="142" spans="1:6" ht="15.75" customHeight="1">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="27"/>
-      <c r="E142" s="27"/>
-      <c r="F142" s="8"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="7"/>
     </row>
     <row r="143" spans="1:6" ht="15.75" customHeight="1">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27"/>
-      <c r="F143" s="8"/>
+      <c r="C143" s="22"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="7"/>
     </row>
     <row r="144" spans="1:6" ht="15.75" customHeight="1">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="28"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="8"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="7"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="8"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="7"/>
     </row>
     <row r="146" spans="1:6" ht="15.75" customHeight="1">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="27"/>
-      <c r="E146" s="27"/>
-      <c r="F146" s="8"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="7"/>
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="27"/>
-      <c r="E147" s="27"/>
-      <c r="F147" s="8"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="7"/>
     </row>
     <row r="148" spans="1:6" ht="15.75" customHeight="1">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="27"/>
-      <c r="E148" s="27"/>
-      <c r="F148" s="8"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="7"/>
     </row>
     <row r="149" spans="1:6" ht="15.75" customHeight="1">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="27"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="8"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="7"/>
     </row>
     <row r="150" spans="1:6" ht="15.75" customHeight="1">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="27"/>
-      <c r="E150" s="27"/>
-      <c r="F150" s="8"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="7"/>
     </row>
     <row r="151" spans="1:6" ht="15.75" customHeight="1">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="27"/>
-      <c r="E151" s="27"/>
-      <c r="F151" s="8"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="7"/>
     </row>
     <row r="152" spans="1:6" ht="15.75" customHeight="1">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="27"/>
-      <c r="E152" s="27"/>
-      <c r="F152" s="8"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="7"/>
     </row>
     <row r="153" spans="1:6" ht="15.75" customHeight="1">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="28"/>
-      <c r="E153" s="27"/>
-      <c r="F153" s="8"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="7"/>
     </row>
     <row r="154" spans="1:6" ht="15.75" customHeight="1">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="27"/>
-      <c r="E154" s="27"/>
-      <c r="F154" s="8"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="7"/>
     </row>
     <row r="155" spans="1:6" ht="15.75" customHeight="1">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="8"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="7"/>
     </row>
     <row r="156" spans="1:6" ht="15.75" customHeight="1">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="27"/>
-      <c r="E156" s="27"/>
-      <c r="F156" s="8"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="7"/>
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1">
       <c r="A157" s="4"/>
       <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="27"/>
-      <c r="E157" s="27"/>
-      <c r="F157" s="8"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="7"/>
     </row>
     <row r="158" spans="1:6" ht="15.75" customHeight="1">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="27"/>
-      <c r="E158" s="27"/>
-      <c r="F158" s="8"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="7"/>
     </row>
     <row r="159" spans="1:6" ht="15.75" customHeight="1">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="27"/>
-      <c r="E159" s="27"/>
-      <c r="F159" s="8"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="7"/>
     </row>
     <row r="160" spans="1:6" ht="15.75" customHeight="1">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="8"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="7"/>
     </row>
     <row r="161" spans="1:6" ht="15.75" customHeight="1">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27"/>
-      <c r="F161" s="8"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="7"/>
     </row>
     <row r="162" spans="1:6" ht="15.75" customHeight="1">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="27"/>
-      <c r="E162" s="27"/>
-      <c r="F162" s="8"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="7"/>
     </row>
     <row r="163" spans="1:6" ht="15.75" customHeight="1">
       <c r="A163" s="4"/>
       <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="27"/>
-      <c r="E163" s="27"/>
-      <c r="F163" s="8"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="7"/>
     </row>
     <row r="164" spans="1:6" ht="15.75" customHeight="1">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="27"/>
-      <c r="E164" s="27"/>
-      <c r="F164" s="8"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="7"/>
     </row>
     <row r="165" spans="1:6" ht="15.75" customHeight="1">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="27"/>
-      <c r="E165" s="27"/>
-      <c r="F165" s="8"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="7"/>
     </row>
     <row r="166" spans="1:6" ht="16.5" customHeight="1">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="27"/>
-      <c r="E166" s="27"/>
-      <c r="F166" s="8"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="7"/>
     </row>
     <row r="167" spans="1:6" ht="15.75" customHeight="1">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="27"/>
-      <c r="E167" s="27"/>
-      <c r="F167" s="8"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="7"/>
     </row>
     <row r="168" spans="1:6" ht="15.75" customHeight="1">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="28"/>
-      <c r="E168" s="27"/>
-      <c r="F168" s="8"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="7"/>
     </row>
     <row r="169" spans="1:6" ht="15.75" customHeight="1">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="27"/>
-      <c r="E169" s="27"/>
-      <c r="F169" s="8"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="17"/>
+      <c r="F169" s="7"/>
     </row>
     <row r="170" spans="1:6" ht="15.75" customHeight="1">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="27"/>
-      <c r="E170" s="27"/>
-      <c r="F170" s="8"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="17"/>
+      <c r="F170" s="7"/>
     </row>
     <row r="171" spans="1:6" ht="15.75" customHeight="1">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="27"/>
-      <c r="E171" s="27"/>
-      <c r="F171" s="8"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="7"/>
     </row>
     <row r="172" spans="1:6" ht="15.75" customHeight="1">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="27"/>
-      <c r="E172" s="27"/>
-      <c r="F172" s="8"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="7"/>
     </row>
     <row r="173" spans="1:6" ht="15.75" customHeight="1">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="27"/>
-      <c r="E173" s="27"/>
-      <c r="F173" s="8"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="7"/>
     </row>
     <row r="174" spans="1:6" ht="15.75" customHeight="1">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="27"/>
-      <c r="E174" s="27"/>
-      <c r="F174" s="8"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="20"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="7"/>
     </row>
     <row r="175" spans="1:6" ht="15.75" customHeight="1">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="27"/>
-      <c r="E175" s="27"/>
-      <c r="F175" s="8"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="7"/>
     </row>
     <row r="176" spans="1:6" ht="15.75" customHeight="1">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="27"/>
-      <c r="E176" s="27"/>
-      <c r="F176" s="8"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="7"/>
     </row>
     <row r="177" spans="1:6" ht="15.75" customHeight="1">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="27"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="8"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="7"/>
     </row>
     <row r="178" spans="1:6" ht="15.75" customHeight="1">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="27"/>
-      <c r="E178" s="27"/>
-      <c r="F178" s="8"/>
+      <c r="C178" s="22"/>
+      <c r="D178" s="20"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="7"/>
     </row>
     <row r="179" spans="1:6" ht="15.75" customHeight="1">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
-      <c r="C179" s="5"/>
-      <c r="D179" s="27"/>
-      <c r="E179" s="27"/>
-      <c r="F179" s="8"/>
+      <c r="C179" s="22"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="7"/>
     </row>
     <row r="180" spans="1:6" ht="15.75" customHeight="1">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="27"/>
-      <c r="E180" s="27"/>
-      <c r="F180" s="8"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="7"/>
     </row>
     <row r="181" spans="1:6" ht="15.75" customHeight="1">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="27"/>
-      <c r="E181" s="27"/>
-      <c r="F181" s="8"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="7"/>
     </row>
     <row r="182" spans="1:6" ht="15.75" customHeight="1">
       <c r="A182" s="4"/>
       <c r="B182" s="5"/>
-      <c r="C182" s="5"/>
-      <c r="D182" s="27"/>
-      <c r="E182" s="27"/>
-      <c r="F182" s="8"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="7"/>
     </row>
     <row r="183" spans="1:6" ht="15.75" customHeight="1">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="27"/>
-      <c r="E183" s="27"/>
-      <c r="F183" s="8"/>
+      <c r="C183" s="22"/>
+      <c r="D183" s="20"/>
+      <c r="E183" s="17"/>
+      <c r="F183" s="7"/>
     </row>
     <row r="184" spans="1:6" ht="15.75" customHeight="1">
       <c r="A184" s="4"/>
       <c r="B184" s="5"/>
-      <c r="C184" s="5"/>
-      <c r="D184" s="27"/>
-      <c r="E184" s="27"/>
-      <c r="F184" s="8"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="17"/>
+      <c r="F184" s="7"/>
     </row>
     <row r="185" spans="1:6" ht="15.75" customHeight="1">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="27"/>
-      <c r="E185" s="27"/>
-      <c r="F185" s="8"/>
+      <c r="C185" s="22"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="17"/>
+      <c r="F185" s="7"/>
     </row>
     <row r="186" spans="1:6" ht="15.75" customHeight="1">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
-      <c r="C186" s="5"/>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="8"/>
+      <c r="C186" s="22"/>
+      <c r="D186" s="20"/>
+      <c r="E186" s="17"/>
+      <c r="F186" s="7"/>
     </row>
     <row r="187" spans="1:6" ht="15.75" customHeight="1">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="27"/>
-      <c r="E187" s="27"/>
-      <c r="F187" s="8"/>
+      <c r="C187" s="22"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="17"/>
+      <c r="F187" s="7"/>
     </row>
     <row r="188" spans="1:6" ht="15.75" customHeight="1">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
-      <c r="C188" s="5"/>
-      <c r="D188" s="27"/>
-      <c r="E188" s="27"/>
-      <c r="F188" s="8"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="17"/>
+      <c r="F188" s="7"/>
     </row>
     <row r="189" spans="1:6" ht="15.75" customHeight="1">
       <c r="A189" s="4"/>
       <c r="B189" s="5"/>
-      <c r="C189" s="5"/>
-      <c r="D189" s="27"/>
-      <c r="E189" s="27"/>
-      <c r="F189" s="8"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="17"/>
+      <c r="F189" s="7"/>
     </row>
     <row r="190" spans="1:6" ht="15.75" customHeight="1">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
-      <c r="C190" s="5"/>
-      <c r="D190" s="27"/>
-      <c r="E190" s="27"/>
-      <c r="F190" s="8"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="20"/>
+      <c r="E190" s="17"/>
+      <c r="F190" s="7"/>
     </row>
     <row r="191" spans="1:6" ht="15.75" customHeight="1">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
-      <c r="C191" s="5"/>
-      <c r="D191" s="28"/>
-      <c r="E191" s="27"/>
-      <c r="F191" s="8"/>
+      <c r="C191" s="22"/>
+      <c r="D191" s="20"/>
+      <c r="E191" s="17"/>
+      <c r="F191" s="7"/>
     </row>
     <row r="192" spans="1:6" ht="15.75" customHeight="1">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
-      <c r="C192" s="5"/>
-      <c r="D192" s="27"/>
-      <c r="E192" s="27"/>
-      <c r="F192" s="8"/>
+      <c r="C192" s="22"/>
+      <c r="D192" s="20"/>
+      <c r="E192" s="17"/>
+      <c r="F192" s="7"/>
     </row>
     <row r="193" spans="1:6" ht="15.75" customHeight="1">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="27"/>
-      <c r="E193" s="27"/>
-      <c r="F193" s="8"/>
+      <c r="C193" s="22"/>
+      <c r="D193" s="20"/>
+      <c r="E193" s="17"/>
+      <c r="F193" s="7"/>
     </row>
     <row r="194" spans="1:6" ht="15.75" customHeight="1">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
-      <c r="C194" s="5"/>
-      <c r="D194" s="27"/>
-      <c r="E194" s="27"/>
-      <c r="F194" s="8"/>
+      <c r="C194" s="22"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="17"/>
+      <c r="F194" s="7"/>
     </row>
     <row r="195" spans="1:6" ht="15.75" customHeight="1">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="27"/>
-      <c r="E195" s="27"/>
-      <c r="F195" s="8"/>
+      <c r="C195" s="22"/>
+      <c r="D195" s="20"/>
+      <c r="E195" s="17"/>
+      <c r="F195" s="7"/>
     </row>
     <row r="196" spans="1:6" ht="15.75" customHeight="1">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
-      <c r="C196" s="5"/>
-      <c r="D196" s="27"/>
-      <c r="E196" s="27"/>
-      <c r="F196" s="8"/>
+      <c r="C196" s="22"/>
+      <c r="D196" s="20"/>
+      <c r="E196" s="17"/>
+      <c r="F196" s="7"/>
     </row>
     <row r="197" spans="1:6" ht="15.75" customHeight="1">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="27"/>
-      <c r="E197" s="27"/>
-      <c r="F197" s="8"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="20"/>
+      <c r="E197" s="17"/>
+      <c r="F197" s="7"/>
     </row>
     <row r="198" spans="1:6" ht="15.75" customHeight="1">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="27"/>
-      <c r="E198" s="27"/>
-      <c r="F198" s="8"/>
+      <c r="C198" s="22"/>
+      <c r="D198" s="20"/>
+      <c r="E198" s="17"/>
+      <c r="F198" s="7"/>
     </row>
     <row r="199" spans="1:6" ht="15.75" customHeight="1">
       <c r="A199" s="4"/>
       <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="27"/>
-      <c r="E199" s="27"/>
-      <c r="F199" s="8"/>
+      <c r="C199" s="22"/>
+      <c r="D199" s="20"/>
+      <c r="E199" s="17"/>
+      <c r="F199" s="7"/>
     </row>
     <row r="200" spans="1:6" ht="15.75" customHeight="1">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="28"/>
-      <c r="E200" s="27"/>
-      <c r="F200" s="8"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="20"/>
+      <c r="E200" s="17"/>
+      <c r="F200" s="7"/>
     </row>
     <row r="201" spans="1:6" ht="15.75" customHeight="1">
       <c r="A201" s="4"/>
       <c r="B201" s="5"/>
-      <c r="C201" s="5"/>
-      <c r="D201" s="27"/>
-      <c r="E201" s="27"/>
-      <c r="F201" s="8"/>
+      <c r="C201" s="22"/>
+      <c r="D201" s="20"/>
+      <c r="E201" s="17"/>
+      <c r="F201" s="7"/>
     </row>
     <row r="202" spans="1:6" ht="15.75" customHeight="1">
       <c r="A202" s="4"/>
       <c r="B202" s="5"/>
-      <c r="C202" s="5"/>
-      <c r="D202" s="27"/>
-      <c r="E202" s="27"/>
-      <c r="F202" s="8"/>
+      <c r="C202" s="22"/>
+      <c r="D202" s="20"/>
+      <c r="E202" s="17"/>
+      <c r="F202" s="7"/>
     </row>
     <row r="203" spans="1:6" ht="15.75" customHeight="1">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
-      <c r="C203" s="5"/>
-      <c r="D203" s="27"/>
-      <c r="E203" s="27"/>
-      <c r="F203" s="8"/>
+      <c r="C203" s="22"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="17"/>
+      <c r="F203" s="7"/>
     </row>
     <row r="204" spans="1:6" ht="15.75" customHeight="1">
       <c r="A204" s="4"/>
       <c r="B204" s="5"/>
-      <c r="C204" s="5"/>
-      <c r="D204" s="27"/>
-      <c r="E204" s="27"/>
-      <c r="F204" s="8"/>
+      <c r="C204" s="22"/>
+      <c r="D204" s="20"/>
+      <c r="E204" s="17"/>
+      <c r="F204" s="7"/>
     </row>
     <row r="205" spans="1:6" ht="15.75" customHeight="1">
       <c r="A205" s="4"/>
       <c r="B205" s="5"/>
-      <c r="C205" s="5"/>
-      <c r="D205" s="27"/>
-      <c r="E205" s="27"/>
-      <c r="F205" s="8"/>
+      <c r="C205" s="22"/>
+      <c r="D205" s="20"/>
+      <c r="E205" s="17"/>
+      <c r="F205" s="7"/>
     </row>
     <row r="206" spans="1:6" ht="15.75" customHeight="1">
       <c r="A206" s="4"/>
       <c r="B206" s="5"/>
-      <c r="C206" s="5"/>
-      <c r="D206" s="27"/>
-      <c r="E206" s="27"/>
-      <c r="F206" s="8"/>
+      <c r="C206" s="22"/>
+      <c r="D206" s="20"/>
+      <c r="E206" s="17"/>
+      <c r="F206" s="7"/>
     </row>
     <row r="207" spans="1:6" ht="15.75" customHeight="1">
       <c r="A207" s="4"/>
       <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
-      <c r="D207" s="27"/>
-      <c r="E207" s="27"/>
-      <c r="F207" s="8"/>
+      <c r="C207" s="22"/>
+      <c r="D207" s="20"/>
+      <c r="E207" s="17"/>
+      <c r="F207" s="7"/>
     </row>
     <row r="208" spans="1:6" ht="15.75" customHeight="1">
       <c r="A208" s="4"/>
       <c r="B208" s="5"/>
-      <c r="C208" s="5"/>
-      <c r="D208" s="27"/>
-      <c r="E208" s="27"/>
-      <c r="F208" s="8"/>
+      <c r="C208" s="22"/>
+      <c r="D208" s="20"/>
+      <c r="E208" s="17"/>
+      <c r="F208" s="7"/>
     </row>
     <row r="209" spans="1:6" ht="15.75" customHeight="1">
       <c r="A209" s="4"/>
       <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="27"/>
-      <c r="E209" s="27"/>
-      <c r="F209" s="8"/>
+      <c r="C209" s="22"/>
+      <c r="D209" s="20"/>
+      <c r="E209" s="17"/>
+      <c r="F209" s="7"/>
     </row>
     <row r="210" spans="1:6" ht="15.75" customHeight="1">
       <c r="A210" s="4"/>
       <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="27"/>
-      <c r="E210" s="27"/>
-      <c r="F210" s="8"/>
+      <c r="C210" s="22"/>
+      <c r="D210" s="20"/>
+      <c r="E210" s="17"/>
+      <c r="F210" s="7"/>
     </row>
     <row r="211" spans="1:6" ht="15.75" customHeight="1">
       <c r="A211" s="4"/>
       <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
-      <c r="D211" s="27"/>
-      <c r="E211" s="27"/>
-      <c r="F211" s="8"/>
+      <c r="C211" s="22"/>
+      <c r="D211" s="20"/>
+      <c r="E211" s="17"/>
+      <c r="F211" s="7"/>
     </row>
     <row r="212" spans="1:6" ht="15.75" customHeight="1">
       <c r="A212" s="4"/>
       <c r="B212" s="5"/>
-      <c r="C212" s="5"/>
-      <c r="D212" s="27"/>
-      <c r="E212" s="27"/>
-      <c r="F212" s="8"/>
+      <c r="C212" s="22"/>
+      <c r="D212" s="20"/>
+      <c r="E212" s="17"/>
+      <c r="F212" s="7"/>
     </row>
     <row r="213" spans="1:6" ht="15.75" customHeight="1">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
-      <c r="C213" s="5"/>
-      <c r="D213" s="27"/>
-      <c r="E213" s="27"/>
-      <c r="F213" s="8"/>
+      <c r="C213" s="22"/>
+      <c r="D213" s="20"/>
+      <c r="E213" s="17"/>
+      <c r="F213" s="7"/>
     </row>
     <row r="214" spans="1:6" ht="15.75" customHeight="1">
       <c r="A214" s="4"/>
       <c r="B214" s="5"/>
-      <c r="C214" s="5"/>
-      <c r="D214" s="27"/>
-      <c r="E214" s="27"/>
-      <c r="F214" s="8"/>
+      <c r="C214" s="22"/>
+      <c r="D214" s="20"/>
+      <c r="E214" s="17"/>
+      <c r="F214" s="7"/>
     </row>
     <row r="215" spans="1:6" ht="15.75" customHeight="1">
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
-      <c r="C215" s="5"/>
-      <c r="D215" s="27"/>
-      <c r="E215" s="27"/>
-      <c r="F215" s="8"/>
+      <c r="C215" s="22"/>
+      <c r="D215" s="20"/>
+      <c r="E215" s="17"/>
+      <c r="F215" s="7"/>
     </row>
     <row r="216" spans="1:6" ht="15.75" customHeight="1">
       <c r="A216" s="4"/>
       <c r="B216" s="5"/>
-      <c r="C216" s="5"/>
-      <c r="D216" s="27"/>
-      <c r="E216" s="27"/>
-      <c r="F216" s="8"/>
+      <c r="C216" s="22"/>
+      <c r="D216" s="20"/>
+      <c r="E216" s="17"/>
+      <c r="F216" s="7"/>
     </row>
     <row r="217" spans="1:6" ht="15.75" customHeight="1">
       <c r="A217" s="4"/>
       <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="27"/>
-      <c r="E217" s="27"/>
-      <c r="F217" s="8"/>
+      <c r="C217" s="22"/>
+      <c r="D217" s="20"/>
+      <c r="E217" s="17"/>
+      <c r="F217" s="7"/>
     </row>
     <row r="218" spans="1:6" ht="15.75" customHeight="1">
       <c r="A218" s="4"/>
       <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
-      <c r="D218" s="27"/>
-      <c r="E218" s="27"/>
-      <c r="F218" s="8"/>
+      <c r="C218" s="22"/>
+      <c r="D218" s="20"/>
+      <c r="E218" s="17"/>
+      <c r="F218" s="7"/>
     </row>
     <row r="219" spans="1:6" ht="15.75" customHeight="1">
       <c r="A219" s="4"/>
       <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
-      <c r="D219" s="27"/>
-      <c r="E219" s="27"/>
-      <c r="F219" s="8"/>
+      <c r="C219" s="22"/>
+      <c r="D219" s="20"/>
+      <c r="E219" s="17"/>
+      <c r="F219" s="7"/>
     </row>
     <row r="220" spans="1:6" ht="15.75" customHeight="1">
       <c r="A220" s="4"/>
       <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
-      <c r="D220" s="30"/>
-      <c r="E220" s="27"/>
-      <c r="F220" s="8"/>
+      <c r="C220" s="22"/>
+      <c r="D220" s="26"/>
+      <c r="E220" s="17"/>
+      <c r="F220" s="7"/>
     </row>
     <row r="221" spans="1:6" ht="15.75" customHeight="1">
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
-      <c r="C221" s="5"/>
-      <c r="D221" s="27"/>
-      <c r="E221" s="27"/>
-      <c r="F221" s="8"/>
+      <c r="C221" s="22"/>
+      <c r="D221" s="20"/>
+      <c r="E221" s="17"/>
+      <c r="F221" s="7"/>
     </row>
     <row r="222" spans="1:6" ht="15.75" customHeight="1">
       <c r="A222" s="4"/>
       <c r="B222" s="5"/>
-      <c r="C222" s="5"/>
-      <c r="D222" s="27"/>
-      <c r="E222" s="27"/>
-      <c r="F222" s="8"/>
+      <c r="C222" s="22"/>
+      <c r="D222" s="20"/>
+      <c r="E222" s="17"/>
+      <c r="F222" s="7"/>
     </row>
     <row r="223" spans="1:6" ht="15.75" customHeight="1">
       <c r="A223" s="4"/>
       <c r="B223" s="5"/>
-      <c r="C223" s="5"/>
-      <c r="D223" s="27"/>
-      <c r="E223" s="27"/>
-      <c r="F223" s="8"/>
+      <c r="C223" s="22"/>
+      <c r="D223" s="20"/>
+      <c r="E223" s="17"/>
+      <c r="F223" s="7"/>
     </row>
     <row r="224" spans="1:6" ht="15.75" customHeight="1">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
-      <c r="C224" s="5"/>
-      <c r="D224" s="27"/>
-      <c r="E224" s="27"/>
-      <c r="F224" s="8"/>
+      <c r="C224" s="22"/>
+      <c r="D224" s="20"/>
+      <c r="E224" s="17"/>
+      <c r="F224" s="7"/>
     </row>
     <row r="225" spans="1:6" ht="15.75" customHeight="1">
       <c r="A225" s="4"/>
       <c r="B225" s="5"/>
-      <c r="C225" s="5"/>
-      <c r="D225" s="27"/>
-      <c r="E225" s="27"/>
-      <c r="F225" s="8"/>
+      <c r="C225" s="22"/>
+      <c r="D225" s="20"/>
+      <c r="E225" s="17"/>
+      <c r="F225" s="7"/>
     </row>
     <row r="226" spans="1:6" ht="15.75" customHeight="1">
       <c r="A226" s="4"/>
       <c r="B226" s="5"/>
-      <c r="C226" s="5"/>
-      <c r="D226" s="27"/>
-      <c r="E226" s="27"/>
-      <c r="F226" s="8"/>
+      <c r="C226" s="22"/>
+      <c r="D226" s="20"/>
+      <c r="E226" s="17"/>
+      <c r="F226" s="7"/>
     </row>
     <row r="227" spans="1:6" ht="15.75" customHeight="1">
       <c r="A227" s="4"/>
       <c r="B227" s="5"/>
-      <c r="C227" s="5"/>
-      <c r="D227" s="27"/>
-      <c r="E227" s="27"/>
-      <c r="F227" s="8"/>
+      <c r="C227" s="22"/>
+      <c r="D227" s="20"/>
+      <c r="E227" s="17"/>
+      <c r="F227" s="7"/>
     </row>
     <row r="228" spans="1:6" ht="15.75" customHeight="1">
       <c r="A228" s="4"/>
       <c r="B228" s="5"/>
-      <c r="C228" s="5"/>
-      <c r="D228" s="27"/>
-      <c r="E228" s="27"/>
-      <c r="F228" s="8"/>
+      <c r="C228" s="22"/>
+      <c r="D228" s="20"/>
+      <c r="E228" s="17"/>
+      <c r="F228" s="7"/>
     </row>
     <row r="229" spans="1:6" ht="15.75" customHeight="1">
       <c r="A229" s="4"/>
       <c r="B229" s="5"/>
-      <c r="C229" s="5"/>
-      <c r="D229" s="27"/>
-      <c r="E229" s="27"/>
-      <c r="F229" s="8"/>
+      <c r="C229" s="22"/>
+      <c r="D229" s="20"/>
+      <c r="E229" s="17"/>
+      <c r="F229" s="7"/>
     </row>
     <row r="230" spans="1:6" ht="15.75" customHeight="1">
       <c r="A230" s="4"/>
       <c r="B230" s="5"/>
-      <c r="C230" s="5"/>
-      <c r="D230" s="27"/>
-      <c r="E230" s="27"/>
-      <c r="F230" s="8"/>
+      <c r="C230" s="22"/>
+      <c r="D230" s="20"/>
+      <c r="E230" s="17"/>
+      <c r="F230" s="7"/>
     </row>
     <row r="231" spans="1:6" ht="15.75" customHeight="1">
       <c r="A231" s="4"/>
       <c r="B231" s="5"/>
-      <c r="C231" s="5"/>
-      <c r="D231" s="27"/>
-      <c r="E231" s="27"/>
-      <c r="F231" s="8"/>
+      <c r="C231" s="22"/>
+      <c r="D231" s="20"/>
+      <c r="E231" s="17"/>
+      <c r="F231" s="7"/>
     </row>
     <row r="232" spans="1:6" ht="15.75" customHeight="1">
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
-      <c r="C232" s="5"/>
-      <c r="D232" s="27"/>
-      <c r="E232" s="27"/>
-      <c r="F232" s="8"/>
+      <c r="C232" s="22"/>
+      <c r="D232" s="20"/>
+      <c r="E232" s="17"/>
+      <c r="F232" s="7"/>
     </row>
     <row r="233" spans="1:6" ht="15.75" customHeight="1">
       <c r="A233" s="4"/>
       <c r="B233" s="5"/>
-      <c r="C233" s="5"/>
-      <c r="D233" s="27"/>
-      <c r="E233" s="27"/>
-      <c r="F233" s="8"/>
+      <c r="C233" s="22"/>
+      <c r="D233" s="20"/>
+      <c r="E233" s="17"/>
+      <c r="F233" s="7"/>
     </row>
     <row r="234" spans="1:6" ht="15.75" customHeight="1">
       <c r="A234" s="4"/>
       <c r="B234" s="5"/>
-      <c r="C234" s="5"/>
-      <c r="D234" s="27"/>
-      <c r="E234" s="27"/>
-      <c r="F234" s="8"/>
+      <c r="C234" s="22"/>
+      <c r="D234" s="20"/>
+      <c r="E234" s="17"/>
+      <c r="F234" s="7"/>
     </row>
     <row r="235" spans="1:6" ht="15.75" customHeight="1">
       <c r="A235" s="4"/>
       <c r="B235" s="5"/>
-      <c r="C235" s="5"/>
-      <c r="D235" s="27"/>
-      <c r="E235" s="27"/>
-      <c r="F235" s="8"/>
+      <c r="C235" s="22"/>
+      <c r="D235" s="20"/>
+      <c r="E235" s="17"/>
+      <c r="F235" s="7"/>
     </row>
     <row r="236" spans="1:6" ht="15.75" customHeight="1">
       <c r="A236" s="4"/>
       <c r="B236" s="5"/>
-      <c r="C236" s="5"/>
-      <c r="D236" s="27"/>
-      <c r="E236" s="27"/>
-      <c r="F236" s="8"/>
+      <c r="C236" s="22"/>
+      <c r="D236" s="20"/>
+      <c r="E236" s="17"/>
+      <c r="F236" s="7"/>
     </row>
     <row r="237" spans="1:6" ht="15.75" customHeight="1">
       <c r="A237" s="4"/>
       <c r="B237" s="5"/>
-      <c r="C237" s="5"/>
-      <c r="D237" s="27"/>
-      <c r="E237" s="27"/>
-      <c r="F237" s="8"/>
+      <c r="C237" s="22"/>
+      <c r="D237" s="20"/>
+      <c r="E237" s="17"/>
+      <c r="F237" s="7"/>
     </row>
     <row r="238" spans="1:6" ht="15.75" customHeight="1">
       <c r="A238" s="4"/>
       <c r="B238" s="5"/>
-      <c r="C238" s="5"/>
-      <c r="D238" s="27"/>
-      <c r="E238" s="27"/>
-      <c r="F238" s="8"/>
+      <c r="C238" s="22"/>
+      <c r="D238" s="20"/>
+      <c r="E238" s="17"/>
+      <c r="F238" s="7"/>
     </row>
     <row r="239" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="240" spans="1:6" ht="15.75" customHeight="1"/>
@@ -3867,19 +4645,66 @@
     <hyperlink ref="C39" r:id="rId37"/>
     <hyperlink ref="C40" r:id="rId38"/>
     <hyperlink ref="C41" r:id="rId39"/>
-    <hyperlink ref="C51" r:id="rId40"/>
-    <hyperlink ref="C50" r:id="rId41"/>
-    <hyperlink ref="C49" r:id="rId42"/>
-    <hyperlink ref="C48" r:id="rId43"/>
-    <hyperlink ref="C47" r:id="rId44"/>
-    <hyperlink ref="C46" r:id="rId45"/>
-    <hyperlink ref="C45" r:id="rId46"/>
-    <hyperlink ref="C44" r:id="rId47"/>
-    <hyperlink ref="C43" r:id="rId48"/>
-    <hyperlink ref="C42" r:id="rId49"/>
-    <hyperlink ref="C33" r:id="rId50"/>
+    <hyperlink ref="C61" r:id="rId40"/>
+    <hyperlink ref="C60" r:id="rId41"/>
+    <hyperlink ref="C59" r:id="rId42"/>
+    <hyperlink ref="C58" r:id="rId43"/>
+    <hyperlink ref="C57" r:id="rId44"/>
+    <hyperlink ref="C56" r:id="rId45"/>
+    <hyperlink ref="C55" r:id="rId46"/>
+    <hyperlink ref="C54" r:id="rId47"/>
+    <hyperlink ref="C53" r:id="rId48"/>
+    <hyperlink ref="C52" r:id="rId49"/>
+    <hyperlink ref="C51" r:id="rId50"/>
+    <hyperlink ref="C50" r:id="rId51"/>
+    <hyperlink ref="C49" r:id="rId52"/>
+    <hyperlink ref="C48" r:id="rId53"/>
+    <hyperlink ref="C47" r:id="rId54"/>
+    <hyperlink ref="C46" r:id="rId55"/>
+    <hyperlink ref="C45" r:id="rId56"/>
+    <hyperlink ref="C44" r:id="rId57"/>
+    <hyperlink ref="C43" r:id="rId58"/>
+    <hyperlink ref="C42" r:id="rId59"/>
+    <hyperlink ref="C62" r:id="rId60"/>
+    <hyperlink ref="C63" r:id="rId61"/>
+    <hyperlink ref="C64" r:id="rId62"/>
+    <hyperlink ref="C65" r:id="rId63"/>
+    <hyperlink ref="C67" r:id="rId64"/>
+    <hyperlink ref="C68" r:id="rId65"/>
+    <hyperlink ref="C69" r:id="rId66"/>
+    <hyperlink ref="C70" r:id="rId67"/>
+    <hyperlink ref="C71" r:id="rId68"/>
+    <hyperlink ref="C72" r:id="rId69"/>
+    <hyperlink ref="C73" r:id="rId70"/>
+    <hyperlink ref="C74" r:id="rId71"/>
+    <hyperlink ref="C75" r:id="rId72"/>
+    <hyperlink ref="C76" r:id="rId73"/>
+    <hyperlink ref="C77" r:id="rId74"/>
+    <hyperlink ref="C78" r:id="rId75"/>
+    <hyperlink ref="C79" r:id="rId76"/>
+    <hyperlink ref="C80" r:id="rId77"/>
+    <hyperlink ref="C81" r:id="rId78"/>
+    <hyperlink ref="C82" r:id="rId79"/>
+    <hyperlink ref="C83" r:id="rId80"/>
+    <hyperlink ref="C84" r:id="rId81"/>
+    <hyperlink ref="C85" r:id="rId82"/>
+    <hyperlink ref="C86" r:id="rId83"/>
+    <hyperlink ref="C87" r:id="rId84"/>
+    <hyperlink ref="C88" r:id="rId85"/>
+    <hyperlink ref="C89" r:id="rId86"/>
+    <hyperlink ref="C90" r:id="rId87"/>
+    <hyperlink ref="C91" r:id="rId88"/>
+    <hyperlink ref="C92" r:id="rId89"/>
+    <hyperlink ref="C93" r:id="rId90"/>
+    <hyperlink ref="C94" r:id="rId91"/>
+    <hyperlink ref="C95" r:id="rId92"/>
+    <hyperlink ref="C96" r:id="rId93"/>
+    <hyperlink ref="C97" r:id="rId94"/>
+    <hyperlink ref="C98" r:id="rId95"/>
+    <hyperlink ref="C99" r:id="rId96"/>
+    <hyperlink ref="C100" r:id="rId97"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId98"/>
 </worksheet>
 </file>
--- a/data/data testing.xlsx
+++ b/data/data testing.xlsx
@@ -258,9 +258,6 @@
     <t>https://www.tiktok.com/@wanpiro9</t>
   </si>
   <si>
-    <t>suka banget sama wangi nya</t>
-  </si>
-  <si>
     <t>selfi_76c</t>
   </si>
   <si>
@@ -678,9 +675,6 @@
     <t xml:space="preserve">itu kan parfum nya varian favorit saya wangi nya cocok buat anak sekolah </t>
   </si>
   <si>
-    <t xml:space="preserve">botol moris keren banget </t>
-  </si>
-  <si>
     <t>kemahalan harga nya untuk kualitas nya jelek</t>
   </si>
   <si>
@@ -693,9 +687,6 @@
     <t>pengiriman jelek mudah rusak</t>
   </si>
   <si>
-    <t>motif botol moris keren keren banget</t>
-  </si>
-  <si>
     <t>kardus pengiriman nya jelek pas sampe sobek</t>
   </si>
   <si>
@@ -744,9 +735,6 @@
     <t>gak enak cepat hilang juga aroma nya</t>
   </si>
   <si>
-    <t>wow emang seharum itu Morris</t>
-  </si>
-  <si>
     <t>kelamaan di toko nya gak dikirim-kirim</t>
   </si>
   <si>
@@ -768,9 +756,6 @@
     <t>bau nya gak enak banget terus gak tahan lama lagi</t>
   </si>
   <si>
-    <t>mantap elegan dan lembut banget wangi nya</t>
-  </si>
-  <si>
     <t>pengiriman lama padahal jasa pengiriman express</t>
   </si>
   <si>
@@ -825,9 +810,6 @@
     <t xml:space="preserve">andalan aku pas sekolah woody langsung berasa jadi artis sekolah </t>
   </si>
   <si>
-    <t>Aroma nya sangat menyengat dan membuat kepala pusing</t>
-  </si>
-  <si>
     <t>Estimasi pengirimannya sangat lama dan menjengkelkan</t>
   </si>
   <si>
@@ -898,6 +880,24 @@
   </si>
   <si>
     <t>https://www.tiktok.com/@ashalwinism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botol moris yang metropolis keren banget </t>
+  </si>
+  <si>
+    <t>Aroma woody nya sangat menyengat dan membuat kepala pusing</t>
+  </si>
+  <si>
+    <t>motif botol metropolis  keren banget</t>
+  </si>
+  <si>
+    <t>suka banget sama wangi nya metropolis</t>
+  </si>
+  <si>
+    <t>wow emang seharum itu Morris freedom</t>
+  </si>
+  <si>
+    <t>mantap elegan dan lembut banget wangi nya creative</t>
   </si>
 </sst>
 </file>
@@ -1366,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y739"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1417,13 +1417,13 @@
     <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="7">
@@ -1455,7 +1455,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7">
@@ -1465,13 +1465,13 @@
     <row r="6" spans="1:6">
       <c r="A6" s="14"/>
       <c r="B6" s="22" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7">
@@ -1503,7 +1503,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7">
@@ -1519,7 +1519,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7">
@@ -1535,7 +1535,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="11">
@@ -1599,7 +1599,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="11">
@@ -1615,7 +1615,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="11">
@@ -1631,7 +1631,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="11">
@@ -1647,7 +1647,7 @@
         <v>38</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="11">
@@ -1663,7 +1663,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="11">
@@ -1679,7 +1679,7 @@
         <v>42</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="7">
@@ -1695,7 +1695,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="7">
@@ -1711,7 +1711,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="7">
@@ -1727,7 +1727,7 @@
         <v>48</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="7">
@@ -1759,7 +1759,7 @@
         <v>53</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="7">
@@ -1775,7 +1775,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="7">
@@ -1791,7 +1791,7 @@
         <v>57</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7">
@@ -1823,7 +1823,7 @@
         <v>62</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="7">
@@ -1855,7 +1855,7 @@
         <v>67</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="7">
@@ -1871,7 +1871,7 @@
         <v>69</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="7">
@@ -1881,13 +1881,13 @@
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="22" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="7">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="20" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7">
@@ -1917,7 +1917,7 @@
         <v>71</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="7">
@@ -1933,7 +1933,7 @@
         <v>71</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>224</v>
+        <v>289</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="7">
@@ -1949,7 +1949,7 @@
         <v>74</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7">
@@ -1965,7 +1965,7 @@
         <v>76</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="7">
@@ -1981,7 +1981,7 @@
         <v>78</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7">
@@ -1991,13 +1991,13 @@
     <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>81</v>
-      </c>
       <c r="D39" s="20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7">
@@ -2007,13 +2007,13 @@
     <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="22" t="s">
-        <v>83</v>
-      </c>
       <c r="D40" s="20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7">
@@ -2023,13 +2023,13 @@
     <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="D41" s="20" t="s">
         <v>85</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>86</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="7">
@@ -2039,13 +2039,13 @@
     <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="31" t="s">
-        <v>88</v>
-      </c>
       <c r="D42" s="20" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7">
@@ -2055,13 +2055,13 @@
     <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="D43" s="20" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="7">
@@ -2071,13 +2071,13 @@
     <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="D44" s="20" t="s">
         <v>92</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>93</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7">
@@ -2087,13 +2087,13 @@
     <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="31" t="s">
-        <v>95</v>
-      </c>
       <c r="D45" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="7">
@@ -2103,13 +2103,13 @@
     <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="31" t="s">
-        <v>97</v>
-      </c>
       <c r="D46" s="20" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="7">
@@ -2119,13 +2119,13 @@
     <row r="47" spans="1:6" ht="15.75" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="31" t="s">
-        <v>99</v>
-      </c>
       <c r="D47" s="20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="7">
@@ -2135,13 +2135,13 @@
     <row r="48" spans="1:6" ht="15.75" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="31" t="s">
-        <v>101</v>
-      </c>
       <c r="D48" s="20" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="7">
@@ -2151,13 +2151,13 @@
     <row r="49" spans="1:6" ht="15.75" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="D49" s="20" t="s">
         <v>103</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>104</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="7">
@@ -2167,13 +2167,13 @@
     <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="31" t="s">
-        <v>106</v>
-      </c>
       <c r="D50" s="20" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="7">
@@ -2183,13 +2183,13 @@
     <row r="51" spans="1:6" ht="15.75" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="31" t="s">
-        <v>108</v>
-      </c>
       <c r="D51" s="20" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="7">
@@ -2199,13 +2199,13 @@
     <row r="52" spans="1:6" ht="15" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="D52" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>111</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="7">
@@ -2215,13 +2215,13 @@
     <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="31" t="s">
-        <v>113</v>
-      </c>
       <c r="D53" s="20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="7">
@@ -2231,13 +2231,13 @@
     <row r="54" spans="1:6" ht="15.75" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="D54" s="20" t="s">
         <v>115</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>116</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="7">
@@ -2247,13 +2247,13 @@
     <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="31" t="s">
-        <v>95</v>
-      </c>
       <c r="D55" s="20" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="7">
@@ -2263,13 +2263,13 @@
     <row r="56" spans="1:6" ht="15.75" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="22" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="7">
@@ -2279,13 +2279,13 @@
     <row r="57" spans="1:6" ht="15.75" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="31" t="s">
-        <v>118</v>
-      </c>
       <c r="D57" s="20" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="7">
@@ -2295,13 +2295,13 @@
     <row r="58" spans="1:6" ht="15.75" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="31" t="s">
-        <v>120</v>
-      </c>
       <c r="D58" s="20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="7">
@@ -2311,13 +2311,13 @@
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="D59" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>123</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="7">
@@ -2327,13 +2327,13 @@
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="31" t="s">
-        <v>125</v>
-      </c>
       <c r="D60" s="20" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="7">
@@ -2343,13 +2343,13 @@
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="31" t="s">
-        <v>127</v>
-      </c>
       <c r="D61" s="20" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="7">
@@ -2359,13 +2359,13 @@
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="D62" s="20" t="s">
         <v>129</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>130</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="7">
@@ -2375,13 +2375,13 @@
     <row r="63" spans="1:6" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="22" t="s">
-        <v>129</v>
-      </c>
       <c r="D63" s="20" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="7">
@@ -2391,13 +2391,13 @@
     <row r="64" spans="1:6" ht="15.75" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="D64" s="20" t="s">
         <v>132</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>133</v>
       </c>
       <c r="E64" s="16"/>
       <c r="F64" s="7">
@@ -2407,13 +2407,13 @@
     <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="22" t="s">
-        <v>135</v>
-      </c>
       <c r="D65" s="20" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7">
@@ -2423,13 +2423,13 @@
     <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="34" t="s">
-        <v>137</v>
-      </c>
       <c r="D66" s="20" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="7">
@@ -2439,13 +2439,13 @@
     <row r="67" spans="1:25" ht="15.75" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="22" t="s">
-        <v>139</v>
-      </c>
       <c r="D67" s="20" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="7">
@@ -2455,13 +2455,13 @@
     <row r="68" spans="1:25" ht="15.75" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="22" t="s">
-        <v>141</v>
-      </c>
       <c r="D68" s="20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E68" s="22"/>
       <c r="F68" s="7">
@@ -2471,13 +2471,13 @@
     <row r="69" spans="1:25" ht="15.75" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="D69" s="20" t="s">
         <v>143</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>144</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="7">
@@ -2487,13 +2487,13 @@
     <row r="70" spans="1:25" ht="15.75" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="22" t="s">
-        <v>146</v>
-      </c>
       <c r="D70" s="20" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="7">
@@ -2503,13 +2503,13 @@
     <row r="71" spans="1:25" ht="15.75" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C71" s="22" t="s">
-        <v>148</v>
-      </c>
       <c r="D71" s="20" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="7">
@@ -2519,13 +2519,13 @@
     <row r="72" spans="1:25" ht="15.75" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C72" s="22" t="s">
-        <v>150</v>
-      </c>
       <c r="D72" s="20" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="7">
@@ -2535,13 +2535,13 @@
     <row r="73" spans="1:25" ht="15.75" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C73" s="31" t="s">
-        <v>152</v>
-      </c>
       <c r="D73" s="20" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="7">
@@ -2551,13 +2551,13 @@
     <row r="74" spans="1:25" ht="15.75" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="D74" s="20" t="s">
         <v>154</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>155</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="7">
@@ -2586,13 +2586,13 @@
     <row r="75" spans="1:25" ht="15.75" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="D75" s="20" t="s">
         <v>157</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>158</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="7">
@@ -2602,13 +2602,13 @@
     <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="D76" s="20" t="s">
         <v>160</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>161</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="7">
@@ -2618,13 +2618,13 @@
     <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="C77" s="31" t="s">
-        <v>163</v>
-      </c>
       <c r="D77" s="20" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="7">
@@ -2634,13 +2634,13 @@
     <row r="78" spans="1:25" ht="15.75" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="C78" s="31" t="s">
+      <c r="D78" s="20" t="s">
         <v>165</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>166</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="7">
@@ -2650,13 +2650,13 @@
     <row r="79" spans="1:25" ht="15.75" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="D79" s="20" t="s">
         <v>168</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>169</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="7">
@@ -2666,13 +2666,13 @@
     <row r="80" spans="1:25" ht="15.75" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="C80" s="31" t="s">
-        <v>171</v>
-      </c>
       <c r="D80" s="22" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="7">
@@ -2682,13 +2682,13 @@
     <row r="81" spans="1:6" ht="15.75" customHeight="1">
       <c r="A81" s="4"/>
       <c r="B81" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="D81" s="20" t="s">
         <v>173</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>174</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="7">
@@ -2698,13 +2698,13 @@
     <row r="82" spans="1:6" ht="15.75" customHeight="1">
       <c r="A82" s="4"/>
       <c r="B82" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="D82" s="20" t="s">
         <v>176</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>177</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="7">
@@ -2714,13 +2714,13 @@
     <row r="83" spans="1:6" ht="15.75" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="D83" s="20" t="s">
         <v>179</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>180</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="7">
@@ -2730,13 +2730,13 @@
     <row r="84" spans="1:6" ht="15.75" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="31" t="s">
+      <c r="D84" s="20" t="s">
         <v>182</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>183</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="7">
@@ -2746,13 +2746,13 @@
     <row r="85" spans="1:6" ht="15.75" customHeight="1">
       <c r="A85" s="4"/>
       <c r="B85" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="C85" s="31" t="s">
+      <c r="D85" s="20" t="s">
         <v>185</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>186</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="7">
@@ -2762,13 +2762,13 @@
     <row r="86" spans="1:6" ht="15.75" customHeight="1">
       <c r="A86" s="4"/>
       <c r="B86" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="C86" s="31" t="s">
-        <v>188</v>
-      </c>
       <c r="D86" s="20" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="7">
@@ -2778,13 +2778,13 @@
     <row r="87" spans="1:6" ht="15.75" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="D87" s="20" t="s">
         <v>190</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>191</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="7">
@@ -2794,13 +2794,13 @@
     <row r="88" spans="1:6" ht="15.75" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="C88" s="31" t="s">
-        <v>193</v>
-      </c>
       <c r="D88" s="28" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="7">
@@ -2810,13 +2810,13 @@
     <row r="89" spans="1:6" ht="15.75" customHeight="1">
       <c r="A89" s="4"/>
       <c r="B89" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="D89" s="20" t="s">
         <v>195</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>196</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="7">
@@ -2826,13 +2826,13 @@
     <row r="90" spans="1:6" ht="15.75" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C90" s="22" t="s">
-        <v>195</v>
-      </c>
       <c r="D90" s="28" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="7">
@@ -2842,13 +2842,13 @@
     <row r="91" spans="1:6" ht="15.75" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="C91" s="31" t="s">
-        <v>198</v>
-      </c>
       <c r="D91" s="29" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="7">
@@ -2858,13 +2858,13 @@
     <row r="92" spans="1:6" ht="15.75" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="C92" s="31" t="s">
-        <v>200</v>
-      </c>
       <c r="D92" s="28" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="7">
@@ -2874,13 +2874,13 @@
     <row r="93" spans="1:6" ht="15.75" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C93" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="C93" s="22" t="s">
-        <v>202</v>
-      </c>
       <c r="D93" s="20" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E93" s="22"/>
       <c r="F93" s="7">
@@ -2890,13 +2890,13 @@
     <row r="94" spans="1:6" ht="15.75" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="C94" s="31" t="s">
+      <c r="D94" s="20" t="s">
         <v>204</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>205</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="7">
@@ -2906,13 +2906,13 @@
     <row r="95" spans="1:6" ht="15.75" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C95" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="C95" s="31" t="s">
-        <v>207</v>
-      </c>
       <c r="D95" s="20" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="7">
@@ -2922,13 +2922,13 @@
     <row r="96" spans="1:6" ht="15.75" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="C96" s="31" t="s">
-        <v>209</v>
-      </c>
       <c r="D96" s="28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="7">
@@ -2938,13 +2938,13 @@
     <row r="97" spans="1:6" ht="15.75" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C97" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="C97" s="22" t="s">
-        <v>211</v>
-      </c>
       <c r="D97" s="20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E97" s="22"/>
       <c r="F97" s="7">
@@ -2954,13 +2954,13 @@
     <row r="98" spans="1:6" ht="15.75" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="D98" s="20" t="s">
         <v>213</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>214</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="7">
@@ -2970,13 +2970,13 @@
     <row r="99" spans="1:6" ht="15.75" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="D99" s="20" t="s">
         <v>216</v>
-      </c>
-      <c r="D99" s="20" t="s">
-        <v>217</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="7">
@@ -2986,13 +2986,13 @@
     <row r="100" spans="1:6" ht="15.75" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="22" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C100" s="35" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="7">
